--- a/biology/Botanique/Le_Bois_International/Le_Bois_International.xlsx
+++ b/biology/Botanique/Le_Bois_International/Le_Bois_International.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Bois International est un hebdomadaire français d’informations professionnelles sur la filière bois, d’analyses, d'informations juridiques et de publicité, fondé en 1930.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Bois International est créé le 5 janvier 1930[2],[3],[4]. Cette société fait partie du groupe Le bois national, l'officiel du bois, créé le 1er janvier 1957 basé à Lyon[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Bois International est créé le 5 janvier 1930. Cette société fait partie du groupe Le bois national, l'officiel du bois, créé le 1er janvier 1957 basé à Lyon,.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La ligne éditoriale du quotidien est le traitement de l’information spécialisée sur toute la filière bois[7]. Il existe deux éditions. L'édition verte est dédiée à la première transformation du bois. Les sujets concernent les sujets les scieries et l'exploration forestière[8]. Et l'édition rouge est dédiée à la seconde transformation du bois soit la charpente, la construction, la menuiserie et le meuble[9],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La ligne éditoriale du quotidien est le traitement de l’information spécialisée sur toute la filière bois. Il existe deux éditions. L'édition verte est dédiée à la première transformation du bois. Les sujets concernent les sujets les scieries et l'exploration forestière. Et l'édition rouge est dédiée à la seconde transformation du bois soit la charpente, la construction, la menuiserie et le meuble,.
 </t>
         </is>
       </c>
